--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-bare-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-bare-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">Multivalued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -148,7 +151,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -208,6 +211,14 @@
     <font>
       <b val="true"/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -256,7 +267,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,6 +317,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -338,13 +353,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -441,134 +456,152 @@
       <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="L4" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="14" t="s">
         <v>24</v>
       </c>
+      <c r="B5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="16" t="s">
         <v>10</v>
       </c>
     </row>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-bare-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-bare-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -353,13 +359,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7:L9"/>
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -459,10 +465,16 @@
       <c r="L4" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="M4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>12</v>
@@ -471,16 +483,16 @@
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>10</v>
@@ -491,7 +503,7 @@
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>12</v>
@@ -500,16 +512,16 @@
         <v>12</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>10</v>
@@ -520,7 +532,7 @@
     </row>
     <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>12</v>
@@ -529,16 +541,16 @@
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>10</v>
@@ -549,7 +561,7 @@
     </row>
     <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>12</v>
@@ -558,16 +570,16 @@
         <v>12</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>10</v>
@@ -578,7 +590,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>10</v>
@@ -587,16 +599,16 @@
         <v>12</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>10</v>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-bare-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-bare-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -157,7 +160,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -228,6 +231,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -273,7 +290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,6 +347,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,6 +361,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -359,13 +384,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4:N4"/>
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -471,149 +496,167 @@
       <c r="N4" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="O4" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15" t="s">
         <v>27</v>
       </c>
+      <c r="B5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="16" t="s">
+      <c r="K5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="16" t="s">
+      <c r="K9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>10</v>
       </c>
     </row>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-bare-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-bare-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -387,10 +384,10 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7:O9"/>
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -496,31 +493,29 @@
       <c r="N4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>10</v>
@@ -528,63 +523,59 @@
       <c r="L5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="K6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>10</v>
@@ -592,31 +583,29 @@
       <c r="L7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>10</v>
@@ -624,31 +613,29 @@
       <c r="L8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>10</v>
@@ -656,9 +643,7 @@
       <c r="L9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="O9" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-bare-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-bare-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -49,12 +52,12 @@
     <t xml:space="preserve">COURSE</t>
   </si>
   <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Course</t>
   </si>
   <si>
-    <t xml:space="preserve">FALSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">date_range_validation.py</t>
   </si>
   <si>
@@ -100,7 +103,10 @@
     <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
-    <t xml:space="preserve">$NAME</t>
+    <t xml:space="preserve">Internal Assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME</t>
   </si>
   <si>
     <t xml:space="preserve">General info</t>
@@ -320,6 +326,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,10 +356,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -381,13 +387,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4:O9"/>
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -407,55 +413,61 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="6"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="H3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -473,177 +485,207 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="14"/>
+      <c r="O4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="M5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>10</v>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="L6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="18"/>
+      <c r="M6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="18"/>
+      <c r="M7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>10</v>
+      <c r="I8" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="18"/>
+      <c r="M8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>10</v>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="L9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="18"/>
+      <c r="M9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
